--- a/exe.win-amd64-3.8/data/average.xlsx
+++ b/exe.win-amd64-3.8/data/average.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7429156825000001</v>
+        <v>0.361817085</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.356388804</v>
+        <v>0.7429156825000001</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2654763415</v>
+        <v>0.356388804</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6644204380000001</v>
+        <v>0.2654763415</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.331933869</v>
+        <v>0.6644204380000001</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2661634205</v>
+        <v>0.331933869</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414515441</v>
+        <v>0.2661634205</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5183829965000001</v>
+        <v>0.414515441</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.795087562</v>
+        <v>0.5183829965000001</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3285384185</v>
+        <v>0.795087562</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.509280714</v>
+        <v>0.3285384185</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5284650445</v>
+        <v>0.509280714</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.962112885</v>
+        <v>0.5284650445</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.120128597</v>
+        <v>0.962112885</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4794632885</v>
+        <v>0.120128597</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6279236969999999</v>
+        <v>0.4794632885</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6779936049999999</v>
+        <v>0.6279236969999999</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5347583315000001</v>
+        <v>0.6779936049999999</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4083221485</v>
+        <v>0.5347583315000001</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6798658745</v>
+        <v>0.4083221485</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.227110135</v>
+        <v>0.6798658745</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.464996384</v>
+        <v>0.227110135</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.479387843</v>
+        <v>0.464996384</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +630,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6892571034999999</v>
+        <v>0.479387843</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.535341474</v>
+        <v>0.6892571034999999</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3341170545</v>
+        <v>0.535341474</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.725803367</v>
+        <v>0.3341170545</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5045083375</v>
+        <v>0.725803367</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +670,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7253032779999999</v>
+        <v>0.5045083375</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +678,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4151707845</v>
+        <v>0.7253032779999999</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.657727009</v>
+        <v>0.4151707845</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +694,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7269720175000001</v>
+        <v>0.657727009</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +702,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.584029797</v>
+        <v>0.7269720175000001</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +710,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.497256528</v>
+        <v>0.584029797</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +718,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2036919145</v>
+        <v>0.497256528</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5976635134999999</v>
+        <v>0.2036919145</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +734,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4532409535</v>
+        <v>0.5976635134999999</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +742,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2705014575</v>
+        <v>0.4532409535</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +750,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6922961875</v>
+        <v>0.2705014575</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +758,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7724251635</v>
+        <v>0.6922961875</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +766,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.563140388</v>
+        <v>0.7724251635</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +774,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5637614135</v>
+        <v>0.563140388</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +782,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6875637744999999</v>
+        <v>0.5637614135</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.87363848</v>
+        <v>0.6875637744999999</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +798,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.418140679</v>
+        <v>0.87363848</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +806,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4290906385</v>
+        <v>0.418140679</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +814,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5428978305</v>
+        <v>0.4290906385</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +822,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3287499045</v>
+        <v>0.5428978305</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +830,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.551876843</v>
+        <v>0.3287499045</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +838,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6063481035</v>
+        <v>0.551876843</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +846,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2145098065</v>
+        <v>0.6063481035</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +854,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0314931035</v>
+        <v>0.2145098065</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +862,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.761376062</v>
+        <v>0.0314931035</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +870,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3832041925</v>
+        <v>0.761376062</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +878,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5645526345</v>
+        <v>0.3832041925</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +886,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8466331565</v>
+        <v>0.5645526345</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +894,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.629828898</v>
+        <v>0.8466331565</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.76616423</v>
+        <v>0.629828898</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +910,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4563217245</v>
+        <v>0.76616423</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +918,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5819778259999999</v>
+        <v>0.4563217245</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +926,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4259934785</v>
+        <v>0.5819778259999999</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +934,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.609562656</v>
+        <v>0.4259934785</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +942,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7342004995</v>
+        <v>0.609562656</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +950,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5253089065</v>
+        <v>0.7342004995</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +958,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5347476225</v>
+        <v>0.5253089065</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +966,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.650987163</v>
+        <v>0.5347476225</v>
       </c>
     </row>
     <row r="68">
@@ -974,7 +974,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3437276065</v>
+        <v>0.650987163</v>
       </c>
     </row>
     <row r="69">
@@ -982,7 +982,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.463155257</v>
+        <v>0.3437276065</v>
       </c>
     </row>
     <row r="70">
@@ -990,7 +990,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7998382589999999</v>
+        <v>0.463155257</v>
       </c>
     </row>
     <row r="71">
@@ -998,7 +998,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.761322583</v>
+        <v>0.7998382589999999</v>
       </c>
     </row>
     <row r="72">
@@ -1006,7 +1006,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4573705485</v>
+        <v>0.761322583</v>
       </c>
     </row>
     <row r="73">
@@ -1014,7 +1014,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.558009399</v>
+        <v>0.4573705485</v>
       </c>
     </row>
     <row r="74">
@@ -1022,7 +1022,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5356233555</v>
+        <v>0.558009399</v>
       </c>
     </row>
     <row r="75">
@@ -1030,7 +1030,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.500798497</v>
+        <v>0.5356233555</v>
       </c>
     </row>
     <row r="76">
@@ -1038,7 +1038,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3526685995</v>
+        <v>0.500798497</v>
       </c>
     </row>
     <row r="77">
@@ -1046,7 +1046,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5343179300000001</v>
+        <v>0.3526685995</v>
       </c>
     </row>
     <row r="78">
@@ -1054,7 +1054,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.504112409</v>
+        <v>0.5343179300000001</v>
       </c>
     </row>
     <row r="79">
@@ -1062,7 +1062,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5086320630000001</v>
+        <v>0.504112409</v>
       </c>
     </row>
     <row r="80">
@@ -1070,7 +1070,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.495602219</v>
+        <v>0.5086320630000001</v>
       </c>
     </row>
     <row r="81">
@@ -1078,7 +1078,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6553148259999999</v>
+        <v>0.495602219</v>
       </c>
     </row>
     <row r="82">
@@ -1086,7 +1086,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.564754348</v>
+        <v>0.6553148259999999</v>
       </c>
     </row>
     <row r="83">
@@ -1094,7 +1094,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5847212795</v>
+        <v>0.564754348</v>
       </c>
     </row>
     <row r="84">
@@ -1102,7 +1102,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7227474684999999</v>
+        <v>0.5847212795</v>
       </c>
     </row>
     <row r="85">
@@ -1110,7 +1110,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5158343665</v>
+        <v>0.7227474684999999</v>
       </c>
     </row>
     <row r="86">
@@ -1118,7 +1118,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8482393675</v>
+        <v>0.5158343665</v>
       </c>
     </row>
     <row r="87">
@@ -1126,7 +1126,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6520509405</v>
+        <v>0.8482393675</v>
       </c>
     </row>
     <row r="88">
@@ -1134,7 +1134,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6119346395</v>
+        <v>0.6520509405</v>
       </c>
     </row>
     <row r="89">
@@ -1142,7 +1142,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4595873605</v>
+        <v>0.6119346395</v>
       </c>
     </row>
     <row r="90">
@@ -1150,7 +1150,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3348675145</v>
+        <v>0.4595873605</v>
       </c>
     </row>
     <row r="91">
@@ -1158,7 +1158,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.718170824</v>
+        <v>0.3348675145</v>
       </c>
     </row>
     <row r="92">
@@ -1166,7 +1166,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5154030315</v>
+        <v>0.718170824</v>
       </c>
     </row>
     <row r="93">
@@ -1174,7 +1174,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5144476165</v>
+        <v>0.5154030315</v>
       </c>
     </row>
     <row r="94">
@@ -1182,7 +1182,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8643015455</v>
+        <v>0.5144476165</v>
       </c>
     </row>
     <row r="95">
@@ -1190,7 +1190,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.683607024</v>
+        <v>0.8643015455</v>
       </c>
     </row>
     <row r="96">
@@ -1198,7 +1198,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3709945495</v>
+        <v>0.683607024</v>
       </c>
     </row>
     <row r="97">
@@ -1206,7 +1206,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.350924096</v>
+        <v>0.3709945495</v>
       </c>
     </row>
     <row r="98">
@@ -1214,7 +1214,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.216245493</v>
+        <v>0.350924096</v>
       </c>
     </row>
     <row r="99">
@@ -1222,7 +1222,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291189237</v>
+        <v>0.216245493</v>
       </c>
     </row>
     <row r="100">
@@ -1230,7 +1230,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4668705265</v>
+        <v>0.291189237</v>
       </c>
     </row>
     <row r="101">
@@ -1238,7 +1238,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8549348190000001</v>
+        <v>0.4668705265</v>
       </c>
     </row>
     <row r="102">
@@ -1246,7 +1246,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5513218495</v>
+        <v>0.8549348190000001</v>
       </c>
     </row>
     <row r="103">
@@ -1254,7 +1254,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2691002355</v>
+        <v>0.5513218495</v>
       </c>
     </row>
     <row r="104">
@@ -1262,7 +1262,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.514557737</v>
+        <v>0.2691002355</v>
       </c>
     </row>
     <row r="105">
@@ -1270,7 +1270,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.34338049</v>
+        <v>0.514557737</v>
       </c>
     </row>
     <row r="106">
@@ -1278,7 +1278,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4627573805</v>
+        <v>0.34338049</v>
       </c>
     </row>
     <row r="107">
@@ -1286,7 +1286,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.442142026</v>
+        <v>0.4627573805</v>
       </c>
     </row>
     <row r="108">
@@ -1294,7 +1294,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.636433994</v>
+        <v>0.442142026</v>
       </c>
     </row>
     <row r="109">
@@ -1302,7 +1302,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6465597015</v>
+        <v>0.636433994</v>
       </c>
     </row>
     <row r="110">
@@ -1310,7 +1310,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.366718935</v>
+        <v>0.6465597015</v>
       </c>
     </row>
     <row r="111">
@@ -1318,7 +1318,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9616307235</v>
+        <v>0.366718935</v>
       </c>
     </row>
     <row r="112">
@@ -1326,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3284933775</v>
+        <v>0.9616307235</v>
       </c>
     </row>
     <row r="113">
@@ -1334,7 +1334,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1375432805</v>
+        <v>0.3284933775</v>
       </c>
     </row>
     <row r="114">
@@ -1342,7 +1342,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.466975731</v>
+        <v>0.1375432805</v>
       </c>
     </row>
     <row r="115">
@@ -1350,7 +1350,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0378100365</v>
+        <v>0.466975731</v>
       </c>
     </row>
     <row r="116">
@@ -1358,7 +1358,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.311276947</v>
+        <v>0.0378100365</v>
       </c>
     </row>
     <row r="117">
@@ -1366,7 +1366,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3835274175</v>
+        <v>0.311276947</v>
       </c>
     </row>
     <row r="118">
@@ -1374,7 +1374,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.673320669</v>
+        <v>0.3835274175</v>
       </c>
     </row>
     <row r="119">
@@ -1382,7 +1382,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1721708245</v>
+        <v>0.673320669</v>
       </c>
     </row>
     <row r="120">
@@ -1390,7 +1390,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3772362405</v>
+        <v>0.1721708245</v>
       </c>
     </row>
     <row r="121">
@@ -1398,7 +1398,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.346483659</v>
+        <v>0.3772362405</v>
       </c>
     </row>
     <row r="122">
@@ -1406,7 +1406,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5711451105000001</v>
+        <v>0.346483659</v>
       </c>
     </row>
     <row r="123">
@@ -1414,7 +1414,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5927772325</v>
+        <v>0.5711451105000001</v>
       </c>
     </row>
     <row r="124">
@@ -1422,7 +1422,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.483532846</v>
+        <v>0.5927772325</v>
       </c>
     </row>
     <row r="125">
@@ -1430,7 +1430,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6805770445</v>
+        <v>0.483532846</v>
       </c>
     </row>
     <row r="126">
@@ -1438,7 +1438,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.458048419</v>
+        <v>0.6805770445</v>
       </c>
     </row>
     <row r="127">
@@ -1446,7 +1446,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5220484315</v>
+        <v>0.458048419</v>
       </c>
     </row>
     <row r="128">
@@ -1454,7 +1454,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2826260235</v>
+        <v>0.5220484315</v>
       </c>
     </row>
     <row r="129">
@@ -1462,7 +1462,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6616999225</v>
+        <v>0.2826260235</v>
       </c>
     </row>
     <row r="130">
@@ -1470,7 +1470,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.40275101</v>
+        <v>0.6616999225</v>
       </c>
     </row>
     <row r="131">
@@ -1478,7 +1478,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3659542015</v>
+        <v>0.40275101</v>
       </c>
     </row>
     <row r="132">
@@ -1486,7 +1486,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3599393795</v>
+        <v>0.3659542015</v>
       </c>
     </row>
     <row r="133">
@@ -1494,7 +1494,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5404476125</v>
+        <v>0.3599393795</v>
       </c>
     </row>
     <row r="134">
@@ -1502,7 +1502,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.420534918</v>
+        <v>0.5404476125</v>
       </c>
     </row>
     <row r="135">
@@ -1510,7 +1510,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.257014472</v>
+        <v>0.420534918</v>
       </c>
     </row>
     <row r="136">
@@ -1518,7 +1518,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.545813023</v>
+        <v>0.257014472</v>
       </c>
     </row>
     <row r="137">
@@ -1526,7 +1526,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.493029717</v>
+        <v>0.545813023</v>
       </c>
     </row>
     <row r="138">
@@ -1534,7 +1534,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5412101435000001</v>
+        <v>0.493029717</v>
       </c>
     </row>
     <row r="139">
@@ -1542,7 +1542,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3369732455</v>
+        <v>0.5412101435000001</v>
       </c>
     </row>
     <row r="140">
@@ -1550,7 +1550,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6174128154999999</v>
+        <v>0.3369732455</v>
       </c>
     </row>
     <row r="141">
@@ -1558,7 +1558,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.4233569495</v>
+        <v>0.6174128154999999</v>
       </c>
     </row>
     <row r="142">
@@ -1566,7 +1566,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6157390265</v>
+        <v>0.4233569495</v>
       </c>
     </row>
     <row r="143">
@@ -1574,7 +1574,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.617756491</v>
+        <v>0.6157390265</v>
       </c>
     </row>
     <row r="144">
@@ -1582,7 +1582,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.485114713</v>
+        <v>0.617756491</v>
       </c>
     </row>
     <row r="145">
@@ -1590,7 +1590,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.225755906</v>
+        <v>0.485114713</v>
       </c>
     </row>
     <row r="146">
@@ -1598,7 +1598,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1103600535</v>
+        <v>0.225755906</v>
       </c>
     </row>
     <row r="147">
@@ -1606,7 +1606,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5715176745</v>
+        <v>0.1103600535</v>
       </c>
     </row>
     <row r="148">
@@ -1614,7 +1614,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6985234819999999</v>
+        <v>0.5715176745</v>
       </c>
     </row>
     <row r="149">
@@ -1622,7 +1622,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2466769735</v>
+        <v>0.6985234819999999</v>
       </c>
     </row>
     <row r="150">
@@ -1630,6 +1630,14 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>0.2466769735</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
         <v>0.4614652045</v>
       </c>
     </row>
